--- a/test.xlsx
+++ b/test.xlsx
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,23 +407,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42395.875</v>
+        <v>42395.878472222219</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42395.885416666657</v>
+        <v>42395.884722222225</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>42395.927083333343</v>
+        <v>42395.893750000003</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42395.9375</v>
+        <v>42395.895138888889</v>
       </c>
       <c r="B5">
         <v>56</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42395.947916666657</v>
+        <v>42395.9</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42395.958333333343</v>
+        <v>42395.902777777781</v>
       </c>
       <c r="B7">
         <v>216</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42395.989583333343</v>
+        <v>42395.90625</v>
       </c>
       <c r="B8">
         <v>63</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>42396</v>
+        <v>42395.913194444445</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>42396.020833333343</v>
+        <v>42395.915972222225</v>
       </c>
       <c r="B10">
         <v>53</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>42396.083333333343</v>
+        <v>42396.039583333331</v>
       </c>
       <c r="B12">
         <v>123</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>42396.104166666657</v>
+        <v>42396.045138888891</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>42396.145833333343</v>
+        <v>42396.055555555555</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -511,3178 +511,1213 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42396.270833333343</v>
+        <v>42396.061805555553</v>
       </c>
       <c r="B15">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>42396.3125</v>
-      </c>
-      <c r="B16">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>42396.34375</v>
-      </c>
-      <c r="B17">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>42396.354166666657</v>
-      </c>
-      <c r="B18">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>42396.364583333343</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>42396.375</v>
-      </c>
-      <c r="B20">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>42396.385416666657</v>
-      </c>
-      <c r="B21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>42396.395833333343</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>42396.40625</v>
-      </c>
-      <c r="B23">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>42396.416666666657</v>
-      </c>
-      <c r="B24">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>42396.427083333343</v>
-      </c>
-      <c r="B25">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>42396.4375</v>
-      </c>
-      <c r="B26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>42396.447916666657</v>
-      </c>
-      <c r="B27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>42396.458333333343</v>
-      </c>
-      <c r="B28">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>42396.479166666657</v>
-      </c>
-      <c r="B29">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>42396.614583333343</v>
-      </c>
-      <c r="B30">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>42396.65625</v>
-      </c>
-      <c r="B31">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>42396.697916666657</v>
-      </c>
-      <c r="B32">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>42396.708333333343</v>
-      </c>
-      <c r="B33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>42396.71875</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>42396.729166666657</v>
-      </c>
-      <c r="B35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>42396.739583333343</v>
-      </c>
-      <c r="B36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>42396.791666666657</v>
-      </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>42396.802083333343</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>42396.8125</v>
-      </c>
-      <c r="B39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>42396.822916666657</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>42396.875</v>
-      </c>
-      <c r="B41">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>42396.9375</v>
-      </c>
-      <c r="B42">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42396.947916666657</v>
-      </c>
-      <c r="B43">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>42396.96875</v>
-      </c>
-      <c r="B44">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>42397.041666666657</v>
-      </c>
-      <c r="B45">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>42397.052083333343</v>
-      </c>
-      <c r="B46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>42397.0625</v>
-      </c>
-      <c r="B47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>42397.34375</v>
-      </c>
-      <c r="B48">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>42397.354166666657</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>42397.364583333343</v>
-      </c>
-      <c r="B50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>42397.71875</v>
-      </c>
-      <c r="B51">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>42397.802083333343</v>
-      </c>
-      <c r="B52">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>42397.8125</v>
-      </c>
-      <c r="B53">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>42397.854166666657</v>
-      </c>
-      <c r="B54">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>42397.864583333343</v>
-      </c>
-      <c r="B55">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>42397.875</v>
-      </c>
-      <c r="B56">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>42397.885416666657</v>
-      </c>
-      <c r="B57">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>42397.895833333343</v>
-      </c>
-      <c r="B58">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>42397.90625</v>
-      </c>
-      <c r="B59">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>42397.916666666657</v>
-      </c>
-      <c r="B60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>42397.927083333343</v>
-      </c>
-      <c r="B61">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>42397.9375</v>
-      </c>
-      <c r="B62">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>42397.947916666657</v>
-      </c>
-      <c r="B63">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>42397.96875</v>
-      </c>
-      <c r="B64">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>42397.979166666657</v>
-      </c>
-      <c r="B65">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>42398.197916666657</v>
-      </c>
-      <c r="B66">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>42398.21875</v>
-      </c>
-      <c r="B67">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>42398.239583333343</v>
-      </c>
-      <c r="B68">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>42398.322916666657</v>
-      </c>
-      <c r="B69">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>42398.333333333343</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>42398.34375</v>
-      </c>
-      <c r="B71">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>42398.354166666657</v>
-      </c>
-      <c r="B72">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>42398.364583333343</v>
-      </c>
-      <c r="B73">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>42398.385416666657</v>
-      </c>
-      <c r="B74">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>42398.46875</v>
-      </c>
-      <c r="B75">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>42398.5</v>
-      </c>
-      <c r="B76">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>42398.510416666657</v>
-      </c>
-      <c r="B77">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>42398.552083333343</v>
-      </c>
-      <c r="B78">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>42398.59375</v>
-      </c>
-      <c r="B79">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>42398.708333333343</v>
-      </c>
-      <c r="B80">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>42398.729166666657</v>
-      </c>
-      <c r="B81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>42398.739583333343</v>
-      </c>
-      <c r="B82">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>42398.75</v>
-      </c>
-      <c r="B83">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>42398.770833333343</v>
-      </c>
-      <c r="B84">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>42398.78125</v>
-      </c>
-      <c r="B85">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>42398.791666666657</v>
-      </c>
-      <c r="B86">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>42398.802083333343</v>
-      </c>
-      <c r="B87">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>42398.8125</v>
-      </c>
-      <c r="B88">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>42398.822916666657</v>
-      </c>
-      <c r="B89">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>42398.84375</v>
-      </c>
-      <c r="B90">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>42398.958333333343</v>
-      </c>
-      <c r="B91">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>42399.041666666657</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>42399.4375</v>
-      </c>
-      <c r="B93">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>42399.458333333343</v>
-      </c>
-      <c r="B94">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>42399.510416666657</v>
-      </c>
-      <c r="B95">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>42399.59375</v>
-      </c>
-      <c r="B96">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>42399.635416666657</v>
-      </c>
-      <c r="B97">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>42399.708333333343</v>
-      </c>
-      <c r="B98">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>42399.71875</v>
-      </c>
-      <c r="B99">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>42399.729166666657</v>
-      </c>
-      <c r="B100">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>42399.739583333343</v>
-      </c>
-      <c r="B101">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>42399.760416666657</v>
-      </c>
-      <c r="B102">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>42399.770833333343</v>
-      </c>
-      <c r="B103">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>42399.78125</v>
-      </c>
-      <c r="B104">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>42399.8125</v>
-      </c>
-      <c r="B105">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>42400.135416666657</v>
-      </c>
-      <c r="B106">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>42400.364583333343</v>
-      </c>
-      <c r="B107">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>42400.53125</v>
-      </c>
-      <c r="B108">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>42400.541666666657</v>
-      </c>
-      <c r="B109">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>42400.552083333343</v>
-      </c>
-      <c r="B110">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>42400.583333333343</v>
-      </c>
-      <c r="B111">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>42400.59375</v>
-      </c>
-      <c r="B112">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>42400.604166666657</v>
-      </c>
-      <c r="B113">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>42400.614583333343</v>
-      </c>
-      <c r="B114">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>42400.666666666657</v>
-      </c>
-      <c r="B115">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>42400.854166666657</v>
-      </c>
-      <c r="B116">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>42400.864583333343</v>
-      </c>
-      <c r="B117">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>42400.875</v>
-      </c>
-      <c r="B118">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>42400.885416666657</v>
-      </c>
-      <c r="B119">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>42400.895833333343</v>
-      </c>
-      <c r="B120">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>42400.90625</v>
-      </c>
-      <c r="B121">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>42400.916666666657</v>
-      </c>
-      <c r="B122">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>42400.927083333343</v>
-      </c>
-      <c r="B123">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>42400.9375</v>
-      </c>
-      <c r="B124">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>42400.947916666657</v>
-      </c>
-      <c r="B125">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>42400.958333333343</v>
-      </c>
-      <c r="B126">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B127">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>42401.03125</v>
-      </c>
-      <c r="B128">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>42401.041666666657</v>
-      </c>
-      <c r="B129">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>42401.09375</v>
-      </c>
-      <c r="B130">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>42401.135416666657</v>
-      </c>
-      <c r="B131">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>42401.177083333343</v>
-      </c>
-      <c r="B132">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>42401.229166666657</v>
-      </c>
-      <c r="B133">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>42401.270833333343</v>
-      </c>
-      <c r="B134">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>42401.34375</v>
-      </c>
-      <c r="B135">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>42401.354166666657</v>
-      </c>
-      <c r="B136">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>42401.364583333343</v>
-      </c>
-      <c r="B137">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>42401.375</v>
-      </c>
-      <c r="B138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>42401.385416666657</v>
-      </c>
-      <c r="B139">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>42401.395833333343</v>
-      </c>
-      <c r="B140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>42401.427083333343</v>
-      </c>
-      <c r="B141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>42401.458333333343</v>
-      </c>
-      <c r="B142">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>42401.479166666657</v>
-      </c>
-      <c r="B143">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>42401.5</v>
-      </c>
-      <c r="B144">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>42401.572916666657</v>
-      </c>
-      <c r="B145">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>42401.604166666657</v>
-      </c>
-      <c r="B146">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>42401.614583333343</v>
-      </c>
-      <c r="B147">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>42401.625</v>
-      </c>
-      <c r="B148">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>42401.635416666657</v>
-      </c>
-      <c r="B149">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>42401.677083333343</v>
-      </c>
-      <c r="B150">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>42401.6875</v>
-      </c>
-      <c r="B151">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>42401.708333333343</v>
-      </c>
-      <c r="B152">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>42401.71875</v>
-      </c>
-      <c r="B153">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>42401.729166666657</v>
-      </c>
-      <c r="B154">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>42401.739583333343</v>
-      </c>
-      <c r="B155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>42401.760416666657</v>
-      </c>
-      <c r="B156">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>42401.791666666657</v>
-      </c>
-      <c r="B157">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>42401.802083333343</v>
-      </c>
-      <c r="B158">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>42401.8125</v>
-      </c>
-      <c r="B159">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>42401.822916666657</v>
-      </c>
-      <c r="B160">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>42401.833333333343</v>
-      </c>
-      <c r="B161">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>42401.84375</v>
-      </c>
-      <c r="B162">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>42401.854166666657</v>
-      </c>
-      <c r="B163">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>42401.9375</v>
-      </c>
-      <c r="B164">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>42401.96875</v>
-      </c>
-      <c r="B165">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>42401.979166666657</v>
-      </c>
-      <c r="B166">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>42402.041666666657</v>
-      </c>
-      <c r="B167">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>42402.114583333343</v>
-      </c>
-      <c r="B168">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>42402.25</v>
-      </c>
-      <c r="B169">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>42402.34375</v>
-      </c>
-      <c r="B170">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>42402.354166666657</v>
-      </c>
-      <c r="B171">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>42402.364583333343</v>
-      </c>
-      <c r="B172">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>42402.385416666657</v>
-      </c>
-      <c r="B173">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>42402.395833333343</v>
-      </c>
-      <c r="B174">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>42402.40625</v>
-      </c>
-      <c r="B175">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>42402.416666666657</v>
-      </c>
-      <c r="B176">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>42402.427083333343</v>
-      </c>
-      <c r="B177">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>42402.4375</v>
-      </c>
-      <c r="B178">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>42402.447916666657</v>
-      </c>
-      <c r="B179">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>42402.458333333343</v>
-      </c>
-      <c r="B180">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>42402.46875</v>
-      </c>
-      <c r="B181">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>42402.489583333343</v>
-      </c>
-      <c r="B182">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>42402.708333333343</v>
-      </c>
-      <c r="B183">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>42402.71875</v>
-      </c>
-      <c r="B184">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>42402.760416666657</v>
-      </c>
-      <c r="B185">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>42402.864583333343</v>
-      </c>
-      <c r="B186">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>42402.875</v>
-      </c>
-      <c r="B187">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>42402.90625</v>
-      </c>
-      <c r="B188">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>42402.96875</v>
-      </c>
-      <c r="B189">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>42402.979166666657</v>
-      </c>
-      <c r="B190">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>42403.041666666657</v>
-      </c>
-      <c r="B191">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>42403.0625</v>
-      </c>
-      <c r="B192">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>42403.104166666657</v>
-      </c>
-      <c r="B193">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>42403.114583333343</v>
-      </c>
-      <c r="B194">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>42403.302083333343</v>
-      </c>
-      <c r="B195">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>42403.333333333343</v>
-      </c>
-      <c r="B196">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>42403.34375</v>
-      </c>
-      <c r="B197">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>42403.354166666657</v>
-      </c>
-      <c r="B198">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>42403.364583333343</v>
-      </c>
-      <c r="B199">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>42403.395833333343</v>
-      </c>
-      <c r="B200">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>42403.40625</v>
-      </c>
-      <c r="B201">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>42403.416666666657</v>
-      </c>
-      <c r="B202">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>42403.427083333343</v>
-      </c>
-      <c r="B203">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>42403.4375</v>
-      </c>
-      <c r="B204">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>42403.447916666657</v>
-      </c>
-      <c r="B205">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>42403.458333333343</v>
-      </c>
-      <c r="B206">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>42403.46875</v>
-      </c>
-      <c r="B207">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>42403.510416666657</v>
-      </c>
-      <c r="B208">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>42403.5625</v>
-      </c>
-      <c r="B209">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>42403.59375</v>
-      </c>
-      <c r="B210">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>42403.65625</v>
-      </c>
-      <c r="B211">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
-        <v>42403.697916666657</v>
-      </c>
-      <c r="B212">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <v>42403.708333333343</v>
-      </c>
-      <c r="B213">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>42403.71875</v>
-      </c>
-      <c r="B214">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>42403.729166666657</v>
-      </c>
-      <c r="B215">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
-        <v>42403.791666666657</v>
-      </c>
-      <c r="B216">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>42403.802083333343</v>
-      </c>
-      <c r="B217">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>42403.822916666657</v>
-      </c>
-      <c r="B218">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
-        <v>42403.854166666657</v>
-      </c>
-      <c r="B219">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>42403.864583333343</v>
-      </c>
-      <c r="B220">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>42403.875</v>
-      </c>
-      <c r="B221">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>42403.885416666657</v>
-      </c>
-      <c r="B222">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>42403.895833333343</v>
-      </c>
-      <c r="B223">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
-        <v>42403.90625</v>
-      </c>
-      <c r="B224">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>42403.927083333343</v>
-      </c>
-      <c r="B225">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
-        <v>42403.9375</v>
-      </c>
-      <c r="B226">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>42403.958333333343</v>
-      </c>
-      <c r="B227">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
-        <v>42403.979166666657</v>
-      </c>
-      <c r="B228">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
-        <v>42404</v>
-      </c>
-      <c r="B229">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>42404.03125</v>
-      </c>
-      <c r="B230">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>42404.0625</v>
-      </c>
-      <c r="B231">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>42404.072916666657</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>42404.145833333343</v>
-      </c>
-      <c r="B233">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>42404.208333333343</v>
-      </c>
-      <c r="B234">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>42404.21875</v>
-      </c>
-      <c r="B235">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>42404.229166666657</v>
-      </c>
-      <c r="B236">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>42404.333333333343</v>
-      </c>
-      <c r="B237">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>42404.34375</v>
-      </c>
-      <c r="B238">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>42404.354166666657</v>
-      </c>
-      <c r="B239">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>42404.364583333343</v>
-      </c>
-      <c r="B240">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>42404.645833333343</v>
-      </c>
-      <c r="B241">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>42404.708333333343</v>
-      </c>
-      <c r="B242">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
-        <v>42404.71875</v>
-      </c>
-      <c r="B243">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
-        <v>42404.760416666657</v>
-      </c>
-      <c r="B244">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
-        <v>42404.8125</v>
-      </c>
-      <c r="B245">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
-        <v>42404.822916666657</v>
-      </c>
-      <c r="B246">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
-        <v>42404.833333333343</v>
-      </c>
-      <c r="B247">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
-        <v>42404.84375</v>
-      </c>
-      <c r="B248">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>42404.875</v>
-      </c>
-      <c r="B249">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
-        <v>42404.885416666657</v>
-      </c>
-      <c r="B250">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
-        <v>42404.895833333343</v>
-      </c>
-      <c r="B251">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
-        <v>42404.90625</v>
-      </c>
-      <c r="B252">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
-        <v>42404.927083333343</v>
-      </c>
-      <c r="B253">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
-        <v>42404.9375</v>
-      </c>
-      <c r="B254">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
-        <v>42404.96875</v>
-      </c>
-      <c r="B255">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>42405.03125</v>
-      </c>
-      <c r="B256">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
-        <v>42405.041666666657</v>
-      </c>
-      <c r="B257">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>42405.104166666657</v>
-      </c>
-      <c r="B258">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>42405.177083333343</v>
-      </c>
-      <c r="B259">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
-        <v>42405.197916666657</v>
-      </c>
-      <c r="B260">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
-        <v>42405.239583333343</v>
-      </c>
-      <c r="B261">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
-        <v>42405.260416666657</v>
-      </c>
-      <c r="B262">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
-        <v>42405.3125</v>
-      </c>
-      <c r="B263">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
-        <v>42405.333333333343</v>
-      </c>
-      <c r="B264">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
-        <v>42405.34375</v>
-      </c>
-      <c r="B265">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
-        <v>42405.354166666657</v>
-      </c>
-      <c r="B266">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
-        <v>42405.395833333343</v>
-      </c>
-      <c r="B267">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
-        <v>42405.40625</v>
-      </c>
-      <c r="B268">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
-        <v>42405.53125</v>
-      </c>
-      <c r="B269">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
-        <v>42405.552083333343</v>
-      </c>
-      <c r="B270">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
-        <v>42405.59375</v>
-      </c>
-      <c r="B271">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
-        <v>42405.604166666657</v>
-      </c>
-      <c r="B272">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
-        <v>42405.645833333343</v>
-      </c>
-      <c r="B273">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
-        <v>42405.6875</v>
-      </c>
-      <c r="B274">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
-        <v>42405.697916666657</v>
-      </c>
-      <c r="B275">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
-        <v>42405.708333333343</v>
-      </c>
-      <c r="B276">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>42405.729166666657</v>
-      </c>
-      <c r="B277">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
-        <v>42405.75</v>
-      </c>
-      <c r="B278">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
-        <v>42405.760416666657</v>
-      </c>
-      <c r="B279">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
-        <v>42405.770833333343</v>
-      </c>
-      <c r="B280">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
-        <v>42405.78125</v>
-      </c>
-      <c r="B281">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
-        <v>42405.8125</v>
-      </c>
-      <c r="B282">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
-        <v>42405.84375</v>
-      </c>
-      <c r="B283">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
-        <v>42405.875</v>
-      </c>
-      <c r="B284">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
-        <v>42405.885416666657</v>
-      </c>
-      <c r="B285">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
-        <v>42405.895833333343</v>
-      </c>
-      <c r="B286">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
-        <v>42405.90625</v>
-      </c>
-      <c r="B287">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
-        <v>42405.916666666657</v>
-      </c>
-      <c r="B288">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
-        <v>42405.927083333343</v>
-      </c>
-      <c r="B289">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
-        <v>42405.9375</v>
-      </c>
-      <c r="B290">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
-        <v>42406.0625</v>
-      </c>
-      <c r="B291">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
-        <v>42406.09375</v>
-      </c>
-      <c r="B292">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
-        <v>42406.104166666657</v>
-      </c>
-      <c r="B293">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
-        <v>42406.114583333343</v>
-      </c>
-      <c r="B294">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
-        <v>42406.145833333343</v>
-      </c>
-      <c r="B295">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
-        <v>42406.1875</v>
-      </c>
-      <c r="B296">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
-        <v>42406.270833333343</v>
-      </c>
-      <c r="B297">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
-        <v>42406.322916666657</v>
-      </c>
-      <c r="B298">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
-        <v>42406.364583333343</v>
-      </c>
-      <c r="B299">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
-        <v>42406.375</v>
-      </c>
-      <c r="B300">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
-        <v>42406.385416666657</v>
-      </c>
-      <c r="B301">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
-        <v>42406.395833333343</v>
-      </c>
-      <c r="B302">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
-        <v>42406.40625</v>
-      </c>
-      <c r="B303">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
-        <v>42406.447916666657</v>
-      </c>
-      <c r="B304">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
-        <v>42406.458333333343</v>
-      </c>
-      <c r="B305">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
-        <v>42406.5</v>
-      </c>
-      <c r="B306">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
-        <v>42406.510416666657</v>
-      </c>
-      <c r="B307">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
-        <v>42406.520833333343</v>
-      </c>
-      <c r="B308">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
-        <v>42406.53125</v>
-      </c>
-      <c r="B309">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
-        <v>42406.541666666657</v>
-      </c>
-      <c r="B310">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
-        <v>42406.5625</v>
-      </c>
-      <c r="B311">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
-        <v>42406.572916666657</v>
-      </c>
-      <c r="B312">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
-        <v>42406.583333333343</v>
-      </c>
-      <c r="B313">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
-        <v>42406.635416666657</v>
-      </c>
-      <c r="B314">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
-        <v>42406.71875</v>
-      </c>
-      <c r="B315">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
-        <v>42406.729166666657</v>
-      </c>
-      <c r="B316">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
-        <v>42406.739583333343</v>
-      </c>
-      <c r="B317">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
-        <v>42406.760416666657</v>
-      </c>
-      <c r="B318">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
-        <v>42406.770833333343</v>
-      </c>
-      <c r="B319">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
-        <v>42406.895833333343</v>
-      </c>
-      <c r="B320">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
-        <v>42406.96875</v>
-      </c>
-      <c r="B321">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
-        <v>42407.010416666657</v>
-      </c>
-      <c r="B322">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
-        <v>42407.020833333343</v>
-      </c>
-      <c r="B323">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
-        <v>42407.052083333343</v>
-      </c>
-      <c r="B324">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
-        <v>42407.083333333343</v>
-      </c>
-      <c r="B325">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
-        <v>42407.09375</v>
-      </c>
-      <c r="B326">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
-        <v>42407.177083333343</v>
-      </c>
-      <c r="B327">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
-        <v>42407.385416666657</v>
-      </c>
-      <c r="B328">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
-        <v>42407.40625</v>
-      </c>
-      <c r="B329">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
-        <v>42407.427083333343</v>
-      </c>
-      <c r="B330">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
-        <v>42407.479166666657</v>
-      </c>
-      <c r="B331">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
-        <v>42407.510416666657</v>
-      </c>
-      <c r="B332">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
-        <v>42407.53125</v>
-      </c>
-      <c r="B333">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
-        <v>42407.5625</v>
-      </c>
-      <c r="B334">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
-        <v>42407.572916666657</v>
-      </c>
-      <c r="B335">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
-        <v>42407.583333333343</v>
-      </c>
-      <c r="B336">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
-        <v>42407.614583333343</v>
-      </c>
-      <c r="B337">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
-        <v>42407.625</v>
-      </c>
-      <c r="B338">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
-        <v>42407.645833333343</v>
-      </c>
-      <c r="B339">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
-        <v>42407.65625</v>
-      </c>
-      <c r="B340">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
-        <v>42407.6875</v>
-      </c>
-      <c r="B341">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
-        <v>42407.729166666657</v>
-      </c>
-      <c r="B342">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
-        <v>42407.770833333343</v>
-      </c>
-      <c r="B343">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
-        <v>42407.791666666657</v>
-      </c>
-      <c r="B344">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
-        <v>42407.822916666657</v>
-      </c>
-      <c r="B345">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
-        <v>42407.833333333343</v>
-      </c>
-      <c r="B346">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
-        <v>42407.854166666657</v>
-      </c>
-      <c r="B347">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
-        <v>42407.864583333343</v>
-      </c>
-      <c r="B348">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
-        <v>42407.875</v>
-      </c>
-      <c r="B349">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
-        <v>42407.885416666657</v>
-      </c>
-      <c r="B350">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
-        <v>42407.895833333343</v>
-      </c>
-      <c r="B351">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
-        <v>42407.90625</v>
-      </c>
-      <c r="B352">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
-        <v>42407.916666666657</v>
-      </c>
-      <c r="B353">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
-        <v>42407.927083333343</v>
-      </c>
-      <c r="B354">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
-        <v>42407.947916666657</v>
-      </c>
-      <c r="B355">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
-        <v>42407.96875</v>
-      </c>
-      <c r="B356">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
-        <v>42407.989583333343</v>
-      </c>
-      <c r="B357">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
-        <v>42408</v>
-      </c>
-      <c r="B358">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
-        <v>42408.020833333343</v>
-      </c>
-      <c r="B359">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
-        <v>42408.03125</v>
-      </c>
-      <c r="B360">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
-        <v>42408.0625</v>
-      </c>
-      <c r="B361">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
-        <v>42408.072916666657</v>
-      </c>
-      <c r="B362">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
-        <v>42408.083333333343</v>
-      </c>
-      <c r="B363">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
-        <v>42408.145833333343</v>
-      </c>
-      <c r="B364">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
-        <v>42408.15625</v>
-      </c>
-      <c r="B365">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
-        <v>42408.166666666657</v>
-      </c>
-      <c r="B366">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
-        <v>42408.1875</v>
-      </c>
-      <c r="B367">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
-        <v>42408.229166666657</v>
-      </c>
-      <c r="B368">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
-        <v>42408.270833333343</v>
-      </c>
-      <c r="B369">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
-        <v>42408.3125</v>
-      </c>
-      <c r="B370">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
-        <v>42408.333333333343</v>
-      </c>
-      <c r="B371">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
-        <v>42408.34375</v>
-      </c>
-      <c r="B372">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
-        <v>42408.354166666657</v>
-      </c>
-      <c r="B373">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
-        <v>42408.6875</v>
-      </c>
-      <c r="B374">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
-        <v>42408.708333333343</v>
-      </c>
-      <c r="B375">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
-        <v>42408.71875</v>
-      </c>
-      <c r="B376">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
-        <v>42408.760416666657</v>
-      </c>
-      <c r="B377">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
-        <v>42408.770833333343</v>
-      </c>
-      <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
-        <v>42408.8125</v>
-      </c>
-      <c r="B379">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
-        <v>42408.84375</v>
-      </c>
-      <c r="B380">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
-        <v>42408.875</v>
-      </c>
-      <c r="B381">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
-        <v>42408.90625</v>
-      </c>
-      <c r="B382">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
-        <v>42408.947916666657</v>
-      </c>
-      <c r="B383">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
-        <v>42408.958333333343</v>
-      </c>
-      <c r="B384">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
-        <v>42408.96875</v>
-      </c>
-      <c r="B385">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
-        <v>42408.979166666657</v>
-      </c>
-      <c r="B386">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
-        <v>42409.03125</v>
-      </c>
-      <c r="B387">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
-        <v>42409.052083333343</v>
-      </c>
-      <c r="B388">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
-        <v>42409.104166666657</v>
-      </c>
-      <c r="B389">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
-        <v>42409.114583333343</v>
-      </c>
-      <c r="B390">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
-        <v>42409.166666666657</v>
-      </c>
-      <c r="B391">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
-        <v>42409.28125</v>
-      </c>
-      <c r="B392">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
-        <v>42409.34375</v>
-      </c>
-      <c r="B393">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
-        <v>42409.354166666657</v>
-      </c>
-      <c r="B394">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
-        <v>42409.385416666657</v>
-      </c>
-      <c r="B395">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
-        <v>42409.416666666657</v>
-      </c>
-      <c r="B396">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
-        <v>42409.5</v>
-      </c>
-      <c r="B397">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
-        <v>42409.541666666657</v>
-      </c>
-      <c r="B398">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
-        <v>42409.708333333343</v>
-      </c>
-      <c r="B399">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
-        <v>42409.71875</v>
-      </c>
-      <c r="B400">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
-        <v>42409.78125</v>
-      </c>
-      <c r="B401">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
-        <v>42409.791666666657</v>
-      </c>
-      <c r="B402">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
-        <v>42409.822916666657</v>
-      </c>
-      <c r="B403">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
-        <v>42409.875</v>
-      </c>
-      <c r="B404">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
-        <v>42409.885416666657</v>
-      </c>
-      <c r="B405">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
-        <v>42409.9375</v>
-      </c>
-      <c r="B406">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
-        <v>42409.947916666657</v>
-      </c>
-      <c r="B407">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
-        <v>42410</v>
-      </c>
-      <c r="B408">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="2"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
@@ -8922,5 +6957,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>